--- a/Phase1_MileStone1_JDW/TestDataSuite/TestData.xlsx
+++ b/Phase1_MileStone1_JDW/TestDataSuite/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="6375"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14130" windowHeight="6375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>userName</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Url</t>
-  </si>
-  <si>
-    <t>https://www.jdwilliams.co.uk/</t>
   </si>
   <si>
     <t>https://www.simplybe.com/en-in/</t>
@@ -129,10 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -442,7 +441,7 @@
     <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -462,7 +461,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -482,7 +481,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -496,13 +495,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -522,165 +521,221 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -690,12 +745,9 @@
     <hyperlink ref="B2" r:id="rId4"/>
     <hyperlink ref="B3" r:id="rId5"/>
     <hyperlink ref="B4" r:id="rId6"/>
-    <hyperlink ref="E2" r:id="rId7"/>
-    <hyperlink ref="E3" r:id="rId8"/>
-    <hyperlink ref="E4" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/Phase1_MileStone1_JDW/TestDataSuite/TestData.xlsx
+++ b/Phase1_MileStone1_JDW/TestDataSuite/TestData.xlsx
@@ -63,7 +63,7 @@
     <t>Url</t>
   </si>
   <si>
-    <t>https://www.simplybe.com/en-in/</t>
+    <t>https://www.jdwilliams.co.uk/</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -745,9 +745,11 @@
     <hyperlink ref="B2" r:id="rId4"/>
     <hyperlink ref="B3" r:id="rId5"/>
     <hyperlink ref="B4" r:id="rId6"/>
+    <hyperlink ref="E2" r:id="rId7"/>
+    <hyperlink ref="E3:E4" r:id="rId8" display="https://www.jdwilliams.co.uk/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
